--- a/sample/StringTable.xlsx
+++ b/sample/StringTable.xlsx
@@ -27,20 +27,7 @@
     <t>description</t>
   </si>
   <si>
-    <t>ko</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>ja</t>
-  </si>
-  <si>
     <t>app_name</t>
-  </si>
-  <si>
-    <t>zh</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>string_id_0</t>
@@ -1155,6 +1142,22 @@
       </rPr>
       <t>[1]</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>values-ko</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>values-zh</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>values-ja</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>values</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1560,7 +1563,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1581,169 +1584,169 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1751,13 +1754,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="5"/>
@@ -1765,13 +1768,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="5"/>
@@ -1779,13 +1782,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1793,13 +1796,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1807,13 +1810,13 @@
     </row>
     <row r="16" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="2"/>
@@ -1821,13 +1824,13 @@
     </row>
     <row r="17" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="3"/>
@@ -1850,263 +1853,263 @@
     </row>
     <row r="20" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
